--- a/BackTest/2020-01-16 BackTest FCT.xlsx
+++ b/BackTest/2020-01-16 BackTest FCT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>8854047.211859351</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>7095802.084559351</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>7031183.739159351</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>7045328.760359352</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>7057352.368159352</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>7098051.828459352</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>6761049.489859352</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>6763246.223359352</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>6755359.728459352</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>6755474.728459352</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>6755459.578459351</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>6770459.578459351</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>6770459.578459351</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>6770459.578459351</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>6724084.143359351</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>6761469.143359351</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>6724908.198459351</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>6693383.935459351</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>6756823.926059351</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>6756823.926059351</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>6756823.926059351</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>6756823.926059351</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>6656300.198859352</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>6676493.813459352</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>6650227.661059352</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>6650982.661059352</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>6604545.475459351</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>6582827.107559351</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>6582827.107559351</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>6582927.107559351</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>6490213.208359351</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>6489222.305459351</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>6425741.037459351</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>6287903.485159351</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>6287903.485159351</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>6200134.428559352</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>6200134.428559352</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>6199984.428559352</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>6196667.805159352</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>6179685.630559352</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>6172928.423359352</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>6083662.485759352</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>6083662.485759352</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>5900263.481359352</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>5858962.039359353</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>5858962.039359353</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>5858980.039359353</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>5760295.526959352</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>5775581.888059353</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>5676101.786259352</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>5676101.786259352</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>5676101.786259352</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>5667200.971259352</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>5668797.750959352</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>5630339.438259352</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>5631590.773959352</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>5631590.773959352</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>5641951.132959352</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>5641951.132959352</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>5598838.528159351</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>5600773.330359351</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>5466279.966259351</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>5476769.592559351</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>5476769.592559351</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>5322885.67795935</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>5322885.67795935</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>5312537.33895935</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>5401802.339071273</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>5366216.222171273</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>5295883.410871273</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>5022117.800471272</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>5188409.603225595</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>5188002.430825596</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>5239851.352425596</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>5206579.664725596</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>5187451.559625596</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>5184866.959625596</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>5165952.160725596</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>5040768.350525596</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7942,17 +7942,11 @@
         <v>3998300.014125596</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
-      </c>
-      <c r="I229" t="n">
-        <v>28.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7985,11 +7979,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8022,11 +8012,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8055,17 +8041,11 @@
         <v>3783968.150025596</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
-      </c>
-      <c r="I232" t="n">
-        <v>28.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8094,17 +8074,11 @@
         <v>3794823.763025596</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
-      </c>
-      <c r="I233" t="n">
-        <v>28.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8133,17 +8107,11 @@
         <v>3828865.179025596</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
-      </c>
-      <c r="I234" t="n">
-        <v>28.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8172,17 +8140,11 @@
         <v>3828865.179025596</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
-      </c>
-      <c r="I235" t="n">
-        <v>28.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8211,17 +8173,11 @@
         <v>3816669.780725596</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
-      </c>
-      <c r="I236" t="n">
-        <v>28.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8250,17 +8206,11 @@
         <v>3751153.519125597</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
-      </c>
-      <c r="I237" t="n">
-        <v>28.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8289,17 +8239,11 @@
         <v>3825016.676525597</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
-      </c>
-      <c r="I238" t="n">
-        <v>28.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8328,17 +8272,11 @@
         <v>3825116.676525597</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
-      </c>
-      <c r="I239" t="n">
-        <v>28.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8367,17 +8305,11 @@
         <v>3845730.806225596</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
-      </c>
-      <c r="I240" t="n">
-        <v>28.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8406,17 +8338,11 @@
         <v>3644811.166925597</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
-      </c>
-      <c r="I241" t="n">
-        <v>28.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8445,17 +8371,11 @@
         <v>3543914.423925597</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
-      </c>
-      <c r="I242" t="n">
-        <v>28.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8484,7 +8404,7 @@
         <v>3561168.481525597</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>28.1</v>
@@ -8492,7 +8412,7 @@
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L243" t="n">
@@ -8523,7 +8443,7 @@
         <v>3561304.481525597</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I244" t="n">
         <v>28.12</v>
@@ -8562,7 +8482,7 @@
         <v>3596300.290925597</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I245" t="n">
         <v>28.4</v>
@@ -8601,7 +8521,7 @@
         <v>3596300.290925597</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I246" t="n">
         <v>28.7</v>
@@ -8640,7 +8560,7 @@
         <v>3596026.815625597</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I247" t="n">
         <v>28.7</v>
@@ -8679,7 +8599,7 @@
         <v>3597186.405425597</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I248" t="n">
         <v>28.6</v>
@@ -8718,7 +8638,7 @@
         <v>3680106.595125597</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I249" t="n">
         <v>28.9</v>
@@ -8757,7 +8677,7 @@
         <v>3679988.595125597</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I250" t="n">
         <v>29</v>
@@ -8796,7 +8716,7 @@
         <v>3680078.595125597</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>28.55</v>
@@ -8835,7 +8755,7 @@
         <v>3680078.595125597</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I252" t="n">
         <v>28.6</v>
@@ -8874,9 +8794,11 @@
         <v>3680178.595125597</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>28.6</v>
+      </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
@@ -8948,11 +8870,9 @@
         <v>3656608.319025597</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
-      </c>
-      <c r="I255" t="n">
-        <v>28.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
@@ -8987,11 +8907,9 @@
         <v>3655518.319025597</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
-      </c>
-      <c r="I256" t="n">
-        <v>28.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
@@ -9026,11 +8944,9 @@
         <v>3647679.380025597</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
-      </c>
-      <c r="I257" t="n">
-        <v>28.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
@@ -9065,7 +8981,7 @@
         <v>3647815.380025597</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I258" t="n">
         <v>28.4</v>
@@ -9104,11 +9020,9 @@
         <v>3672223.713525597</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
-      </c>
-      <c r="I259" t="n">
-        <v>28.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
@@ -9143,11 +9057,9 @@
         <v>3672223.713525597</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
-      </c>
-      <c r="I260" t="n">
-        <v>28.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
@@ -9182,11 +9094,9 @@
         <v>3675031.156225597</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
-      </c>
-      <c r="I261" t="n">
-        <v>28.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
@@ -9221,11 +9131,9 @@
         <v>3681035.520419023</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
-      </c>
-      <c r="I262" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
@@ -9260,11 +9168,9 @@
         <v>3660237.164719023</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
-      </c>
-      <c r="I263" t="n">
-        <v>28.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
@@ -9410,11 +9316,9 @@
         <v>3609241.773119023</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
-      </c>
-      <c r="I267" t="n">
-        <v>28.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
@@ -9449,11 +9353,9 @@
         <v>3603852.826619023</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
-      </c>
-      <c r="I268" t="n">
-        <v>28.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
@@ -9488,7 +9390,7 @@
         <v>3605048.572519023</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I269" t="n">
         <v>28.45</v>
@@ -9527,11 +9429,9 @@
         <v>3605196.572519023</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
-      </c>
-      <c r="I270" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
@@ -9566,11 +9466,9 @@
         <v>3605196.572519023</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
-      </c>
-      <c r="I271" t="n">
-        <v>29.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
@@ -9605,11 +9503,9 @@
         <v>3591036.376419023</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
-      </c>
-      <c r="I272" t="n">
-        <v>29.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
@@ -9644,7 +9540,7 @@
         <v>3583059.601119023</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I273" t="n">
         <v>29</v>
@@ -9683,7 +9579,7 @@
         <v>3582239.928019023</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I274" t="n">
         <v>28.9</v>
@@ -9722,7 +9618,7 @@
         <v>3582239.928019023</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I275" t="n">
         <v>28.52</v>
@@ -9761,7 +9657,7 @@
         <v>3470518.380319023</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I276" t="n">
         <v>28.52</v>
@@ -9800,7 +9696,7 @@
         <v>3420070.816519023</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I277" t="n">
         <v>28.51</v>
@@ -9839,7 +9735,7 @@
         <v>3250864.678919023</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I278" t="n">
         <v>28.39</v>
@@ -9878,7 +9774,7 @@
         <v>3170870.519019023</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I279" t="n">
         <v>28.11</v>
@@ -9917,7 +9813,7 @@
         <v>3181202.540319023</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I280" t="n">
         <v>28.06</v>
@@ -9956,7 +9852,7 @@
         <v>3181202.540319023</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281" t="n">
         <v>28.33</v>
@@ -9995,7 +9891,7 @@
         <v>3189027.675519023</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
         <v>28.33</v>
@@ -10034,7 +9930,7 @@
         <v>3146731.484719023</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I283" t="n">
         <v>28.6</v>
@@ -10073,7 +9969,7 @@
         <v>3145356.619919023</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I284" t="n">
         <v>28.45</v>
@@ -10112,7 +10008,7 @@
         <v>3137163.123519023</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I285" t="n">
         <v>28.33</v>
@@ -10151,7 +10047,7 @@
         <v>3139160.725819023</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I286" t="n">
         <v>28.2</v>
@@ -10190,7 +10086,7 @@
         <v>3118744.681419023</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I287" t="n">
         <v>28.3</v>
@@ -10229,7 +10125,7 @@
         <v>3118744.681419023</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288" t="n">
         <v>28.2</v>
@@ -10268,7 +10164,7 @@
         <v>3118744.681419023</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I289" t="n">
         <v>28.2</v>
@@ -10307,7 +10203,7 @@
         <v>3124581.986619023</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I290" t="n">
         <v>28.2</v>
@@ -10346,7 +10242,7 @@
         <v>3057534.174519022</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I291" t="n">
         <v>28.6</v>
@@ -10385,7 +10281,7 @@
         <v>3057534.174519022</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I292" t="n">
         <v>28.5</v>
@@ -10424,7 +10320,7 @@
         <v>3057534.174519022</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I293" t="n">
         <v>28.5</v>
@@ -10463,7 +10359,7 @@
         <v>3057534.174519022</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I294" t="n">
         <v>28.5</v>
@@ -10502,7 +10398,7 @@
         <v>3068811.216519022</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I295" t="n">
         <v>28.5</v>
@@ -10541,7 +10437,7 @@
         <v>3067279.889619022</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I296" t="n">
         <v>28.59</v>
@@ -10580,7 +10476,7 @@
         <v>3045099.895019022</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I297" t="n">
         <v>28.5</v>
@@ -10619,7 +10515,7 @@
         <v>3046817.659419023</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I298" t="n">
         <v>28.3</v>
@@ -10658,7 +10554,7 @@
         <v>3008954.805819022</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I299" t="n">
         <v>28.31</v>
@@ -10697,7 +10593,7 @@
         <v>2861846.197919022</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I300" t="n">
         <v>28.3</v>
@@ -10736,7 +10632,7 @@
         <v>2883055.594419022</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I301" t="n">
         <v>28.08</v>
@@ -10775,7 +10671,7 @@
         <v>2886052.385119022</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I302" t="n">
         <v>28.11</v>
@@ -10814,7 +10710,7 @@
         <v>2886052.385119022</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I303" t="n">
         <v>28.3</v>
@@ -10853,7 +10749,7 @@
         <v>2886337.433419022</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I304" t="n">
         <v>28.3</v>
@@ -10892,7 +10788,7 @@
         <v>2886337.433419022</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I305" t="n">
         <v>28.7</v>
@@ -10931,7 +10827,7 @@
         <v>2891355.433419022</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I306" t="n">
         <v>28.7</v>
@@ -10970,7 +10866,7 @@
         <v>2891355.433419022</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I307" t="n">
         <v>28.79</v>
@@ -11009,7 +10905,7 @@
         <v>2935647.759719022</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I308" t="n">
         <v>28.79</v>
@@ -11048,7 +10944,7 @@
         <v>2919717.955819021</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I309" t="n">
         <v>28.8</v>
@@ -11087,7 +10983,7 @@
         <v>2900721.296719022</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I310" t="n">
         <v>28.61</v>
@@ -11126,7 +11022,7 @@
         <v>2922118.295419022</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I311" t="n">
         <v>28.5</v>
@@ -11165,7 +11061,7 @@
         <v>2922118.295419022</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I312" t="n">
         <v>28.6</v>
@@ -11204,7 +11100,7 @@
         <v>2945311.272119022</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I313" t="n">
         <v>28.6</v>
@@ -11243,7 +11139,7 @@
         <v>2945311.272119022</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I314" t="n">
         <v>28.8</v>
@@ -11282,9 +11178,11 @@
         <v>2964380.504896184</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>28.8</v>
+      </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
@@ -11319,9 +11217,11 @@
         <v>2964380.504896184</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>28.9</v>
+      </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
@@ -11356,9 +11256,11 @@
         <v>2964380.504896184</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>28.9</v>
+      </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
@@ -11393,9 +11295,11 @@
         <v>2964416.328896184</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>28.9</v>
+      </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
@@ -11430,9 +11334,11 @@
         <v>2964416.328896184</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>29.14</v>
+      </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
@@ -11467,7 +11373,7 @@
         <v>2964416.328896184</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I320" t="n">
         <v>29.14</v>
@@ -11506,9 +11412,11 @@
         <v>2965776.495796184</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>29.14</v>
+      </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
@@ -11543,9 +11451,11 @@
         <v>2937281.507096184</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>29.17</v>
+      </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
@@ -11580,9 +11490,11 @@
         <v>2873026.685596184</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>29.14</v>
+      </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
@@ -11617,9 +11529,11 @@
         <v>2836178.580696184</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>29</v>
+      </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
@@ -11654,7 +11568,7 @@
         <v>2836178.580696184</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I325" t="n">
         <v>28.9</v>
@@ -11693,7 +11607,7 @@
         <v>2826178.580696184</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I326" t="n">
         <v>28.9</v>
@@ -11732,7 +11646,7 @@
         <v>2824562.037096184</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I327" t="n">
         <v>28.71</v>
@@ -11771,7 +11685,7 @@
         <v>2824562.037096184</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I328" t="n">
         <v>28.7</v>
@@ -11810,7 +11724,7 @@
         <v>2824562.037096184</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I329" t="n">
         <v>28.7</v>
@@ -11849,7 +11763,7 @@
         <v>2824562.037096184</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I330" t="n">
         <v>28.7</v>
@@ -11888,7 +11802,7 @@
         <v>2824562.037096184</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I331" t="n">
         <v>28.7</v>
@@ -11927,7 +11841,7 @@
         <v>2846757.704496184</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I332" t="n">
         <v>28.7</v>
@@ -11966,7 +11880,7 @@
         <v>2854307.704496184</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I333" t="n">
         <v>28.89</v>
@@ -12005,7 +11919,7 @@
         <v>2865731.808213831</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I334" t="n">
         <v>29</v>
@@ -12044,7 +11958,7 @@
         <v>2866481.808213831</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I335" t="n">
         <v>29.17</v>
@@ -12083,7 +11997,7 @@
         <v>2866481.808213831</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I336" t="n">
         <v>29.4</v>
@@ -12122,7 +12036,7 @@
         <v>2866481.808213831</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I337" t="n">
         <v>29.4</v>
@@ -12161,7 +12075,7 @@
         <v>2867697.868517232</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I338" t="n">
         <v>29.4</v>
@@ -12200,7 +12114,7 @@
         <v>2845360.583320634</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I339" t="n">
         <v>29.57</v>
@@ -12239,7 +12153,7 @@
         <v>2845360.583320634</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I340" t="n">
         <v>29.4</v>
@@ -12278,7 +12192,7 @@
         <v>2848932.653920634</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I341" t="n">
         <v>29.4</v>
@@ -12317,7 +12231,7 @@
         <v>2845134.048020634</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I342" t="n">
         <v>29.5</v>
@@ -12356,7 +12270,7 @@
         <v>2840763.213320634</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I343" t="n">
         <v>29.49</v>
@@ -12395,7 +12309,7 @@
         <v>2833555.535720634</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I344" t="n">
         <v>29.48</v>
@@ -12434,7 +12348,7 @@
         <v>2903056.096720634</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I345" t="n">
         <v>29.3</v>
@@ -12473,7 +12387,7 @@
         <v>2916369.747120634</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I346" t="n">
         <v>29.5</v>
@@ -12512,11 +12426,9 @@
         <v>2873077.832920634</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
-      </c>
-      <c r="I347" t="n">
-        <v>29.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
@@ -12551,7 +12463,7 @@
         <v>2885142.239700295</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I348" t="n">
         <v>29.14</v>
@@ -12590,11 +12502,9 @@
         <v>2885142.239700295</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
-      </c>
-      <c r="I349" t="n">
-        <v>29.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
@@ -12629,11 +12539,9 @@
         <v>2854142.239700295</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
-      </c>
-      <c r="I350" t="n">
-        <v>29.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
@@ -12668,11 +12576,9 @@
         <v>2864000.963900295</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
-      </c>
-      <c r="I351" t="n">
-        <v>29.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
@@ -12707,11 +12613,9 @@
         <v>2864000.963900295</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
-      </c>
-      <c r="I352" t="n">
-        <v>29.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
@@ -12746,11 +12650,9 @@
         <v>2864000.963900295</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
-      </c>
-      <c r="I353" t="n">
-        <v>29.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
@@ -12785,11 +12687,9 @@
         <v>2864000.963900295</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
-      </c>
-      <c r="I354" t="n">
-        <v>29.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
@@ -12824,11 +12724,9 @@
         <v>2864000.963900295</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
-      </c>
-      <c r="I355" t="n">
-        <v>29.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
@@ -12863,11 +12761,9 @@
         <v>2835557.480700295</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
-      </c>
-      <c r="I356" t="n">
-        <v>29.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
@@ -12902,11 +12798,9 @@
         <v>2905111.345246093</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
-      </c>
-      <c r="I357" t="n">
-        <v>29.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
@@ -12941,11 +12835,9 @@
         <v>2904979.466546093</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
-      </c>
-      <c r="I358" t="n">
-        <v>29.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
@@ -12980,11 +12872,9 @@
         <v>2905744.207246093</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
-      </c>
-      <c r="I359" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
@@ -13019,11 +12909,9 @@
         <v>2905744.207246093</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
-      </c>
-      <c r="I360" t="n">
-        <v>29.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
@@ -13058,11 +12946,9 @@
         <v>2905744.207246093</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
-      </c>
-      <c r="I361" t="n">
-        <v>29.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
@@ -13097,11 +12983,9 @@
         <v>2905744.207246093</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
-      </c>
-      <c r="I362" t="n">
-        <v>29.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
@@ -13136,11 +13020,9 @@
         <v>2916422.151946093</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
-      </c>
-      <c r="I363" t="n">
-        <v>29.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
@@ -13175,11 +13057,9 @@
         <v>2916422.151946093</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
-      </c>
-      <c r="I364" t="n">
-        <v>29.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
@@ -13214,11 +13094,9 @@
         <v>2916422.151946093</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
-      </c>
-      <c r="I365" t="n">
-        <v>29.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
@@ -13253,11 +13131,9 @@
         <v>2920827.379446093</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
-      </c>
-      <c r="I366" t="n">
-        <v>29.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
@@ -13292,11 +13168,9 @@
         <v>2920827.379446093</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
-      </c>
-      <c r="I367" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
@@ -13331,11 +13205,9 @@
         <v>2920827.379446093</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
-      </c>
-      <c r="I368" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
@@ -13370,11 +13242,9 @@
         <v>3018234.848646093</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
-      </c>
-      <c r="I369" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
@@ -13446,11 +13316,9 @@
         <v>3088211.401246093</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
-      </c>
-      <c r="I371" t="n">
-        <v>29.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
@@ -13522,11 +13390,9 @@
         <v>3088211.401246093</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
-      </c>
-      <c r="I373" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
@@ -13561,11 +13427,9 @@
         <v>3144593.984646093</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
-      </c>
-      <c r="I374" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
@@ -13600,11 +13464,9 @@
         <v>3161269.717246093</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
-      </c>
-      <c r="I375" t="n">
-        <v>29.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
@@ -13639,11 +13501,9 @@
         <v>3161305.573546093</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
-      </c>
-      <c r="I376" t="n">
-        <v>29.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
@@ -13678,11 +13538,9 @@
         <v>3161305.573546093</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
-      </c>
-      <c r="I377" t="n">
-        <v>29.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
@@ -13717,11 +13575,9 @@
         <v>3161305.573546093</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
-      </c>
-      <c r="I378" t="n">
-        <v>29.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
@@ -24316,6 +24172,6 @@
       <c r="M664" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest FCT.xlsx
+++ b/BackTest/2020-01-16 BackTest FCT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>8854047.211859351</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>7095802.084559351</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>7031183.739159351</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>7045328.760359352</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>7057352.368159352</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>7098051.828459352</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>6761049.489859352</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>6763246.223359352</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>6755359.728459352</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>6755474.728459352</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>6755459.578459351</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>6770459.578459351</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>6770459.578459351</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>6770459.578459351</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>6724084.143359351</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>6761469.143359351</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>6724908.198459351</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>6693383.935459351</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>6756823.926059351</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>6756823.926059351</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>6756823.926059351</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>6756823.926059351</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>6656300.198859352</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>6676493.813459352</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>6650227.661059352</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>6650982.661059352</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>6604545.475459351</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>6582827.107559351</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>6582827.107559351</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>6582927.107559351</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>6490213.208359351</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>6489222.305459351</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>6425741.037459351</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>6287903.485159351</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>6287903.485159351</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>6200134.428559352</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>6200134.428559352</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>6199984.428559352</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>6196667.805159352</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>6179685.630559352</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>6172928.423359352</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>6083662.485759352</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>6083662.485759352</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>5900263.481359352</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>5858962.039359353</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>5858962.039359353</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>5858980.039359353</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>5600773.330359351</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>5455710.36355935</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>5455710.36355935</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>5455710.36355935</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>5455710.36355935</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>5473863.48005935</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>5417515.83025935</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>5322885.67795935</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>5322885.67795935</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>5312537.33895935</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>5308052.00185935</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>5308052.00185935</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>5401802.339071273</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>5401802.339071273</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>5401802.339071273</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>5366216.222171273</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>5295883.410871273</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>5295823.410871273</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>5172157.415771273</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>5017404.161571273</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>5017404.161571273</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>5022117.800471272</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>5028664.595071272</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>5036179.388371272</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>5036179.388371272</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>5045037.812995399</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>5079935.557671272</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>5188409.603225595</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>5188002.430825596</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>5239851.352425596</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>5206579.664725596</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>5187451.559625596</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>5184866.959625596</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>5165952.160725596</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>5040768.350525596</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>5040768.350525596</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>5042917.595225596</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>4992859.547825596</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>4992859.547825596</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>4970869.136325596</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>4955877.330925596</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -8404,1504 +8404,1304 @@
         <v>3561168.481525597</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>28.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="C244" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="D244" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E244" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="F244" t="n">
+        <v>136</v>
+      </c>
+      <c r="G244" t="n">
+        <v>3561304.481525597</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C245" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D245" t="n">
+        <v>29.13</v>
+      </c>
+      <c r="E245" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="F245" t="n">
+        <v>34995.8094</v>
+      </c>
+      <c r="G245" t="n">
+        <v>3596300.290925597</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C246" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D246" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E246" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F246" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G246" t="n">
+        <v>3596300.290925597</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>28.68</v>
+      </c>
+      <c r="C247" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D247" t="n">
+        <v>28.68</v>
+      </c>
+      <c r="E247" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="F247" t="n">
+        <v>273.4753</v>
+      </c>
+      <c r="G247" t="n">
+        <v>3596026.815625597</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C248" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="D248" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E248" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="F248" t="n">
+        <v>1159.5898</v>
+      </c>
+      <c r="G248" t="n">
+        <v>3597186.405425597</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="C249" t="n">
+        <v>29</v>
+      </c>
+      <c r="D249" t="n">
+        <v>29</v>
+      </c>
+      <c r="E249" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="F249" t="n">
+        <v>82920.1897</v>
+      </c>
+      <c r="G249" t="n">
+        <v>3680106.595125597</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>29.11</v>
+      </c>
+      <c r="C250" t="n">
+        <v>28.55</v>
+      </c>
+      <c r="D250" t="n">
+        <v>29.11</v>
+      </c>
+      <c r="E250" t="n">
+        <v>28.55</v>
+      </c>
+      <c r="F250" t="n">
+        <v>118</v>
+      </c>
+      <c r="G250" t="n">
+        <v>3679988.595125597</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>28.55</v>
+      </c>
+      <c r="C251" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D251" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E251" t="n">
+        <v>28.55</v>
+      </c>
+      <c r="F251" t="n">
+        <v>90</v>
+      </c>
+      <c r="G251" t="n">
+        <v>3680078.595125597</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C252" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D252" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E252" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="F252" t="n">
+        <v>54</v>
+      </c>
+      <c r="G252" t="n">
+        <v>3680078.595125597</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>29.12</v>
+      </c>
+      <c r="C253" t="n">
+        <v>29.13</v>
+      </c>
+      <c r="D253" t="n">
+        <v>29.13</v>
+      </c>
+      <c r="E253" t="n">
+        <v>29.12</v>
+      </c>
+      <c r="F253" t="n">
+        <v>100</v>
+      </c>
+      <c r="G253" t="n">
+        <v>3680178.595125597</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C254" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D254" t="n">
+        <v>29.13</v>
+      </c>
+      <c r="E254" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="F254" t="n">
+        <v>23570.2761</v>
+      </c>
+      <c r="G254" t="n">
+        <v>3656608.319025597</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C255" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D255" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="E255" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="F255" t="n">
+        <v>6548.3261</v>
+      </c>
+      <c r="G255" t="n">
+        <v>3656608.319025597</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="C256" t="n">
+        <v>28.56</v>
+      </c>
+      <c r="D256" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="E256" t="n">
+        <v>28.56</v>
+      </c>
+      <c r="F256" t="n">
+        <v>1090</v>
+      </c>
+      <c r="G256" t="n">
+        <v>3655518.319025597</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>28.56</v>
+      </c>
+      <c r="C257" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="D257" t="n">
+        <v>28.56</v>
+      </c>
+      <c r="E257" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="F257" t="n">
+        <v>7838.939</v>
+      </c>
+      <c r="G257" t="n">
+        <v>3647679.380025597</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>28.43</v>
+      </c>
+      <c r="C258" t="n">
+        <v>28.43</v>
+      </c>
+      <c r="D258" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="E258" t="n">
+        <v>28.43</v>
+      </c>
+      <c r="F258" t="n">
+        <v>136</v>
+      </c>
+      <c r="G258" t="n">
+        <v>3647815.380025597</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>28.41</v>
+      </c>
+      <c r="C259" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D259" t="n">
+        <v>29</v>
+      </c>
+      <c r="E259" t="n">
+        <v>28.41</v>
+      </c>
+      <c r="F259" t="n">
+        <v>24408.3335</v>
+      </c>
+      <c r="G259" t="n">
+        <v>3672223.713525597</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="C260" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D260" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E260" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F260" t="n">
+        <v>4248.5453</v>
+      </c>
+      <c r="G260" t="n">
+        <v>3672223.713525597</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C261" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D261" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E261" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F261" t="n">
+        <v>2807.4427</v>
+      </c>
+      <c r="G261" t="n">
+        <v>3675031.156225597</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="C262" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="D262" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="E262" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F262" t="n">
+        <v>6004.364193425606</v>
+      </c>
+      <c r="G262" t="n">
+        <v>3681035.520419023</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C263" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="D263" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E263" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F263" t="n">
+        <v>20798.3557</v>
+      </c>
+      <c r="G263" t="n">
+        <v>3660237.164719023</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="C264" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="D264" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="E264" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="F264" t="n">
+        <v>144</v>
+      </c>
+      <c r="G264" t="n">
+        <v>3660381.164719023</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="C265" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="D265" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="E265" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="F265" t="n">
+        <v>1258.1419</v>
+      </c>
+      <c r="G265" t="n">
+        <v>3659123.022819023</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="C266" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D266" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="E266" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F266" t="n">
+        <v>78076.2363</v>
+      </c>
+      <c r="G266" t="n">
+        <v>3581046.786519023</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="C267" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="D267" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="E267" t="n">
+        <v>28.41</v>
+      </c>
+      <c r="F267" t="n">
+        <v>28194.9866</v>
+      </c>
+      <c r="G267" t="n">
+        <v>3609241.773119023</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>28.43</v>
+      </c>
+      <c r="C268" t="n">
+        <v>28.45</v>
+      </c>
+      <c r="D268" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="E268" t="n">
+        <v>28.43</v>
+      </c>
+      <c r="F268" t="n">
+        <v>5388.9465</v>
+      </c>
+      <c r="G268" t="n">
+        <v>3603852.826619023</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>29</v>
+      </c>
+      <c r="C269" t="n">
+        <v>29</v>
+      </c>
+      <c r="D269" t="n">
+        <v>29</v>
+      </c>
+      <c r="E269" t="n">
+        <v>29</v>
+      </c>
+      <c r="F269" t="n">
+        <v>1195.7459</v>
+      </c>
+      <c r="G269" t="n">
+        <v>3605048.572519023</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="C270" t="n">
+        <v>29.13</v>
+      </c>
+      <c r="D270" t="n">
+        <v>29.13</v>
+      </c>
+      <c r="E270" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="F270" t="n">
+        <v>148</v>
+      </c>
+      <c r="G270" t="n">
+        <v>3605196.572519023</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>29.13</v>
+      </c>
+      <c r="C271" t="n">
+        <v>29.13</v>
+      </c>
+      <c r="D271" t="n">
+        <v>29.13</v>
+      </c>
+      <c r="E271" t="n">
+        <v>29.13</v>
+      </c>
+      <c r="F271" t="n">
+        <v>635.3616</v>
+      </c>
+      <c r="G271" t="n">
+        <v>3605196.572519023</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>29.17</v>
+      </c>
+      <c r="C272" t="n">
+        <v>29</v>
+      </c>
+      <c r="D272" t="n">
+        <v>29.17</v>
+      </c>
+      <c r="E272" t="n">
+        <v>29</v>
+      </c>
+      <c r="F272" t="n">
+        <v>14160.1961</v>
+      </c>
+      <c r="G272" t="n">
+        <v>3591036.376419023</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="C273" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="D273" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="E273" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="F273" t="n">
+        <v>7976.7753</v>
+      </c>
+      <c r="G273" t="n">
+        <v>3583059.601119023</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>28.69</v>
+      </c>
+      <c r="C274" t="n">
+        <v>28.52</v>
+      </c>
+      <c r="D274" t="n">
+        <v>28.69</v>
+      </c>
+      <c r="E274" t="n">
+        <v>28.52</v>
+      </c>
+      <c r="F274" t="n">
+        <v>819.6731</v>
+      </c>
+      <c r="G274" t="n">
+        <v>3582239.928019023</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>28.52</v>
+      </c>
+      <c r="C275" t="n">
+        <v>28.52</v>
+      </c>
+      <c r="D275" t="n">
+        <v>28.53</v>
+      </c>
+      <c r="E275" t="n">
+        <v>28.52</v>
+      </c>
+      <c r="F275" t="n">
+        <v>67603.72900000001</v>
+      </c>
+      <c r="G275" t="n">
+        <v>3582239.928019023</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>28.52</v>
+      </c>
+      <c r="C276" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="D276" t="n">
+        <v>28.52</v>
+      </c>
+      <c r="E276" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="F276" t="n">
+        <v>111721.5477</v>
+      </c>
+      <c r="G276" t="n">
+        <v>3470518.380319023</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>28.45</v>
+      </c>
+      <c r="C277" t="n">
+        <v>28.39</v>
+      </c>
+      <c r="D277" t="n">
+        <v>28.45</v>
+      </c>
+      <c r="E277" t="n">
+        <v>28.39</v>
+      </c>
+      <c r="F277" t="n">
+        <v>50447.5638</v>
+      </c>
+      <c r="G277" t="n">
+        <v>3420070.816519023</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>28.32</v>
+      </c>
+      <c r="C278" t="n">
+        <v>28.11</v>
+      </c>
+      <c r="D278" t="n">
+        <v>28.39</v>
+      </c>
+      <c r="E278" t="n">
+        <v>28.11</v>
+      </c>
+      <c r="F278" t="n">
+        <v>169206.1376</v>
+      </c>
+      <c r="G278" t="n">
+        <v>3250864.678919023</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>28.11</v>
+      </c>
+      <c r="C279" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="D279" t="n">
+        <v>28.11</v>
+      </c>
+      <c r="E279" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="F279" t="n">
+        <v>79994.1599</v>
+      </c>
+      <c r="G279" t="n">
+        <v>3170870.519019023</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>28.11</v>
+      </c>
+      <c r="C280" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="D280" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="E280" t="n">
+        <v>28.11</v>
+      </c>
+      <c r="F280" t="n">
+        <v>10332.0213</v>
+      </c>
+      <c r="G280" t="n">
+        <v>3181202.540319023</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="C281" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="D281" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="E281" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="F281" t="n">
+        <v>100</v>
+      </c>
+      <c r="G281" t="n">
+        <v>3181202.540319023</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="C282" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D282" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E282" t="n">
+        <v>28.31</v>
+      </c>
+      <c r="F282" t="n">
+        <v>7825.1352</v>
+      </c>
+      <c r="G282" t="n">
+        <v>3189027.675519023</v>
+      </c>
+      <c r="H282" t="n">
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="C244" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="D244" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="E244" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="F244" t="n">
-        <v>136</v>
-      </c>
-      <c r="G244" t="n">
-        <v>3561304.481525597</v>
-      </c>
-      <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>28.12</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="C245" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="D245" t="n">
-        <v>29.13</v>
-      </c>
-      <c r="E245" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="F245" t="n">
-        <v>34995.8094</v>
-      </c>
-      <c r="G245" t="n">
-        <v>3596300.290925597</v>
-      </c>
-      <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="C246" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="D246" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="E246" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="F246" t="n">
-        <v>1200</v>
-      </c>
-      <c r="G246" t="n">
-        <v>3596300.290925597</v>
-      </c>
-      <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>28.68</v>
-      </c>
-      <c r="C247" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="D247" t="n">
-        <v>28.68</v>
-      </c>
-      <c r="E247" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="F247" t="n">
-        <v>273.4753</v>
-      </c>
-      <c r="G247" t="n">
-        <v>3596026.815625597</v>
-      </c>
-      <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="C248" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="D248" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="E248" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="F248" t="n">
-        <v>1159.5898</v>
-      </c>
-      <c r="G248" t="n">
-        <v>3597186.405425597</v>
-      </c>
-      <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="C249" t="n">
-        <v>29</v>
-      </c>
-      <c r="D249" t="n">
-        <v>29</v>
-      </c>
-      <c r="E249" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="F249" t="n">
-        <v>82920.1897</v>
-      </c>
-      <c r="G249" t="n">
-        <v>3680106.595125597</v>
-      </c>
-      <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>29.11</v>
-      </c>
-      <c r="C250" t="n">
-        <v>28.55</v>
-      </c>
-      <c r="D250" t="n">
-        <v>29.11</v>
-      </c>
-      <c r="E250" t="n">
-        <v>28.55</v>
-      </c>
-      <c r="F250" t="n">
-        <v>118</v>
-      </c>
-      <c r="G250" t="n">
-        <v>3679988.595125597</v>
-      </c>
-      <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>29</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>28.55</v>
-      </c>
-      <c r="C251" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="D251" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="E251" t="n">
-        <v>28.55</v>
-      </c>
-      <c r="F251" t="n">
-        <v>90</v>
-      </c>
-      <c r="G251" t="n">
-        <v>3680078.595125597</v>
-      </c>
-      <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>28.55</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="C252" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="D252" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="E252" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="F252" t="n">
-        <v>54</v>
-      </c>
-      <c r="G252" t="n">
-        <v>3680078.595125597</v>
-      </c>
-      <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>29.12</v>
-      </c>
-      <c r="C253" t="n">
-        <v>29.13</v>
-      </c>
-      <c r="D253" t="n">
-        <v>29.13</v>
-      </c>
-      <c r="E253" t="n">
-        <v>29.12</v>
-      </c>
-      <c r="F253" t="n">
-        <v>100</v>
-      </c>
-      <c r="G253" t="n">
-        <v>3680178.595125597</v>
-      </c>
-      <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="C254" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="D254" t="n">
-        <v>29.13</v>
-      </c>
-      <c r="E254" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="F254" t="n">
-        <v>23570.2761</v>
-      </c>
-      <c r="G254" t="n">
-        <v>3656608.319025597</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="C255" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="D255" t="n">
-        <v>29.09</v>
-      </c>
-      <c r="E255" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="F255" t="n">
-        <v>6548.3261</v>
-      </c>
-      <c r="G255" t="n">
-        <v>3656608.319025597</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="C256" t="n">
-        <v>28.56</v>
-      </c>
-      <c r="D256" t="n">
-        <v>29.09</v>
-      </c>
-      <c r="E256" t="n">
-        <v>28.56</v>
-      </c>
-      <c r="F256" t="n">
-        <v>1090</v>
-      </c>
-      <c r="G256" t="n">
-        <v>3655518.319025597</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>28.56</v>
-      </c>
-      <c r="C257" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="D257" t="n">
-        <v>28.56</v>
-      </c>
-      <c r="E257" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="F257" t="n">
-        <v>7838.939</v>
-      </c>
-      <c r="G257" t="n">
-        <v>3647679.380025597</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>28.43</v>
-      </c>
-      <c r="C258" t="n">
-        <v>28.43</v>
-      </c>
-      <c r="D258" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="E258" t="n">
-        <v>28.43</v>
-      </c>
-      <c r="F258" t="n">
-        <v>136</v>
-      </c>
-      <c r="G258" t="n">
-        <v>3647815.380025597</v>
-      </c>
-      <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>28.41</v>
-      </c>
-      <c r="C259" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="D259" t="n">
-        <v>29</v>
-      </c>
-      <c r="E259" t="n">
-        <v>28.41</v>
-      </c>
-      <c r="F259" t="n">
-        <v>24408.3335</v>
-      </c>
-      <c r="G259" t="n">
-        <v>3672223.713525597</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="C260" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="D260" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="E260" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="F260" t="n">
-        <v>4248.5453</v>
-      </c>
-      <c r="G260" t="n">
-        <v>3672223.713525597</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="C261" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="D261" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="E261" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="F261" t="n">
-        <v>2807.4427</v>
-      </c>
-      <c r="G261" t="n">
-        <v>3675031.156225597</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="C262" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="D262" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="E262" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="F262" t="n">
-        <v>6004.364193425606</v>
-      </c>
-      <c r="G262" t="n">
-        <v>3681035.520419023</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="C263" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="D263" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="E263" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="F263" t="n">
-        <v>20798.3557</v>
-      </c>
-      <c r="G263" t="n">
-        <v>3660237.164719023</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>29.09</v>
-      </c>
-      <c r="C264" t="n">
-        <v>29.09</v>
-      </c>
-      <c r="D264" t="n">
-        <v>29.09</v>
-      </c>
-      <c r="E264" t="n">
-        <v>29.09</v>
-      </c>
-      <c r="F264" t="n">
-        <v>144</v>
-      </c>
-      <c r="G264" t="n">
-        <v>3660381.164719023</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>29.09</v>
-      </c>
-      <c r="C265" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="D265" t="n">
-        <v>29.09</v>
-      </c>
-      <c r="E265" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="F265" t="n">
-        <v>1258.1419</v>
-      </c>
-      <c r="G265" t="n">
-        <v>3659123.022819023</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="C266" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="D266" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="E266" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="F266" t="n">
-        <v>78076.2363</v>
-      </c>
-      <c r="G266" t="n">
-        <v>3581046.786519023</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="C267" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="D267" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="E267" t="n">
-        <v>28.41</v>
-      </c>
-      <c r="F267" t="n">
-        <v>28194.9866</v>
-      </c>
-      <c r="G267" t="n">
-        <v>3609241.773119023</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>28.43</v>
-      </c>
-      <c r="C268" t="n">
-        <v>28.45</v>
-      </c>
-      <c r="D268" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="E268" t="n">
-        <v>28.43</v>
-      </c>
-      <c r="F268" t="n">
-        <v>5388.9465</v>
-      </c>
-      <c r="G268" t="n">
-        <v>3603852.826619023</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>29</v>
-      </c>
-      <c r="C269" t="n">
-        <v>29</v>
-      </c>
-      <c r="D269" t="n">
-        <v>29</v>
-      </c>
-      <c r="E269" t="n">
-        <v>29</v>
-      </c>
-      <c r="F269" t="n">
-        <v>1195.7459</v>
-      </c>
-      <c r="G269" t="n">
-        <v>3605048.572519023</v>
-      </c>
-      <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>28.45</v>
-      </c>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>29.09</v>
-      </c>
-      <c r="C270" t="n">
-        <v>29.13</v>
-      </c>
-      <c r="D270" t="n">
-        <v>29.13</v>
-      </c>
-      <c r="E270" t="n">
-        <v>29.09</v>
-      </c>
-      <c r="F270" t="n">
-        <v>148</v>
-      </c>
-      <c r="G270" t="n">
-        <v>3605196.572519023</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>29.13</v>
-      </c>
-      <c r="C271" t="n">
-        <v>29.13</v>
-      </c>
-      <c r="D271" t="n">
-        <v>29.13</v>
-      </c>
-      <c r="E271" t="n">
-        <v>29.13</v>
-      </c>
-      <c r="F271" t="n">
-        <v>635.3616</v>
-      </c>
-      <c r="G271" t="n">
-        <v>3605196.572519023</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>29.17</v>
-      </c>
-      <c r="C272" t="n">
-        <v>29</v>
-      </c>
-      <c r="D272" t="n">
-        <v>29.17</v>
-      </c>
-      <c r="E272" t="n">
-        <v>29</v>
-      </c>
-      <c r="F272" t="n">
-        <v>14160.1961</v>
-      </c>
-      <c r="G272" t="n">
-        <v>3591036.376419023</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="C273" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="D273" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="E273" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="F273" t="n">
-        <v>7976.7753</v>
-      </c>
-      <c r="G273" t="n">
-        <v>3583059.601119023</v>
-      </c>
-      <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>29</v>
-      </c>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>28.69</v>
-      </c>
-      <c r="C274" t="n">
-        <v>28.52</v>
-      </c>
-      <c r="D274" t="n">
-        <v>28.69</v>
-      </c>
-      <c r="E274" t="n">
-        <v>28.52</v>
-      </c>
-      <c r="F274" t="n">
-        <v>819.6731</v>
-      </c>
-      <c r="G274" t="n">
-        <v>3582239.928019023</v>
-      </c>
-      <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>28.52</v>
-      </c>
-      <c r="C275" t="n">
-        <v>28.52</v>
-      </c>
-      <c r="D275" t="n">
-        <v>28.53</v>
-      </c>
-      <c r="E275" t="n">
-        <v>28.52</v>
-      </c>
-      <c r="F275" t="n">
-        <v>67603.72900000001</v>
-      </c>
-      <c r="G275" t="n">
-        <v>3582239.928019023</v>
-      </c>
-      <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>28.52</v>
-      </c>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>28.52</v>
-      </c>
-      <c r="C276" t="n">
-        <v>28.51</v>
-      </c>
-      <c r="D276" t="n">
-        <v>28.52</v>
-      </c>
-      <c r="E276" t="n">
-        <v>28.51</v>
-      </c>
-      <c r="F276" t="n">
-        <v>111721.5477</v>
-      </c>
-      <c r="G276" t="n">
-        <v>3470518.380319023</v>
-      </c>
-      <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>28.52</v>
-      </c>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>28.45</v>
-      </c>
-      <c r="C277" t="n">
-        <v>28.39</v>
-      </c>
-      <c r="D277" t="n">
-        <v>28.45</v>
-      </c>
-      <c r="E277" t="n">
-        <v>28.39</v>
-      </c>
-      <c r="F277" t="n">
-        <v>50447.5638</v>
-      </c>
-      <c r="G277" t="n">
-        <v>3420070.816519023</v>
-      </c>
-      <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>28.51</v>
-      </c>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>28.32</v>
-      </c>
-      <c r="C278" t="n">
-        <v>28.11</v>
-      </c>
-      <c r="D278" t="n">
-        <v>28.39</v>
-      </c>
-      <c r="E278" t="n">
-        <v>28.11</v>
-      </c>
-      <c r="F278" t="n">
-        <v>169206.1376</v>
-      </c>
-      <c r="G278" t="n">
-        <v>3250864.678919023</v>
-      </c>
-      <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>28.39</v>
-      </c>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>28.11</v>
-      </c>
-      <c r="C279" t="n">
-        <v>28.06</v>
-      </c>
-      <c r="D279" t="n">
-        <v>28.11</v>
-      </c>
-      <c r="E279" t="n">
-        <v>28.06</v>
-      </c>
-      <c r="F279" t="n">
-        <v>79994.1599</v>
-      </c>
-      <c r="G279" t="n">
-        <v>3170870.519019023</v>
-      </c>
-      <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>28.11</v>
-      </c>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>28.11</v>
-      </c>
-      <c r="C280" t="n">
-        <v>28.33</v>
-      </c>
-      <c r="D280" t="n">
-        <v>28.33</v>
-      </c>
-      <c r="E280" t="n">
-        <v>28.11</v>
-      </c>
-      <c r="F280" t="n">
-        <v>10332.0213</v>
-      </c>
-      <c r="G280" t="n">
-        <v>3181202.540319023</v>
-      </c>
-      <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>28.06</v>
-      </c>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>28.33</v>
-      </c>
-      <c r="C281" t="n">
-        <v>28.33</v>
-      </c>
-      <c r="D281" t="n">
-        <v>28.33</v>
-      </c>
-      <c r="E281" t="n">
-        <v>28.33</v>
-      </c>
-      <c r="F281" t="n">
-        <v>100</v>
-      </c>
-      <c r="G281" t="n">
-        <v>3181202.540319023</v>
-      </c>
-      <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>28.33</v>
-      </c>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>28.33</v>
-      </c>
-      <c r="C282" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="D282" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="E282" t="n">
-        <v>28.31</v>
-      </c>
-      <c r="F282" t="n">
-        <v>7825.1352</v>
-      </c>
-      <c r="G282" t="n">
-        <v>3189027.675519023</v>
-      </c>
-      <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>28.33</v>
-      </c>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9930,11 +9730,9 @@
         <v>3146731.484719023</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>28.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
@@ -9969,11 +9767,9 @@
         <v>3145356.619919023</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>28.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
@@ -10008,11 +9804,9 @@
         <v>3137163.123519023</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>28.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
@@ -10398,11 +10192,9 @@
         <v>3068811.216519022</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>28.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
@@ -11334,11 +11126,9 @@
         <v>2964416.328896184</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>29.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
@@ -11373,11 +11163,9 @@
         <v>2964416.328896184</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>29.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
@@ -11412,11 +11200,9 @@
         <v>2965776.495796184</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>29.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
@@ -12036,11 +11822,9 @@
         <v>2866481.808213831</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>29.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
@@ -12075,11 +11859,9 @@
         <v>2867697.868517232</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>29.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
@@ -12114,11 +11896,9 @@
         <v>2845360.583320634</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>29.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
@@ -12153,11 +11933,9 @@
         <v>2845360.583320634</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>29.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
@@ -12192,11 +11970,9 @@
         <v>2848932.653920634</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>29.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
@@ -12231,11 +12007,9 @@
         <v>2845134.048020634</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
-      </c>
-      <c r="I342" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
@@ -12270,11 +12044,9 @@
         <v>2840763.213320634</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
-      </c>
-      <c r="I343" t="n">
-        <v>29.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
@@ -12309,11 +12081,9 @@
         <v>2833555.535720634</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
-      </c>
-      <c r="I344" t="n">
-        <v>29.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
@@ -12348,11 +12118,9 @@
         <v>2903056.096720634</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
-      </c>
-      <c r="I345" t="n">
-        <v>29.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
@@ -12387,11 +12155,9 @@
         <v>2916369.747120634</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
@@ -12463,11 +12229,9 @@
         <v>2885142.239700295</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
-      </c>
-      <c r="I348" t="n">
-        <v>29.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
@@ -14278,18 +14042,16 @@
         <v>3435445.315093162</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L397" t="n">
-        <v>1</v>
-      </c>
+      <c r="L397" t="inlineStr"/>
       <c r="M397" t="inlineStr"/>
     </row>
     <row r="398">
@@ -14315,15 +14077,11 @@
         <v>3391058.359177503</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14352,15 +14110,11 @@
         <v>3391058.359177503</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14389,15 +14143,11 @@
         <v>3286180.594377503</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14426,15 +14176,11 @@
         <v>3286246.594377503</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14463,15 +14209,11 @@
         <v>3182394.939977503</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14500,15 +14242,11 @@
         <v>3183714.193377503</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14537,15 +14275,11 @@
         <v>3182141.123777503</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14574,15 +14308,11 @@
         <v>3208352.070077503</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14611,15 +14341,11 @@
         <v>3203829.277777503</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14648,15 +14374,11 @@
         <v>3203829.277777503</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14685,15 +14407,11 @@
         <v>3085697.110477503</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14726,11 +14444,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14763,11 +14477,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14796,15 +14506,11 @@
         <v>3126969.263977503</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14833,15 +14539,11 @@
         <v>3126969.263977503</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14870,15 +14572,11 @@
         <v>3122780.709677503</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14907,15 +14605,11 @@
         <v>3116269.572377503</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14944,15 +14638,11 @@
         <v>3076498.436277503</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14981,15 +14671,11 @@
         <v>3070444.415877503</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15022,11 +14708,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15059,11 +14741,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15096,11 +14774,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15129,15 +14803,11 @@
         <v>2982905.877577503</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15166,15 +14836,11 @@
         <v>2983595.532749917</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15203,15 +14869,11 @@
         <v>2980737.932949917</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15240,15 +14902,11 @@
         <v>2980754.932949917</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15277,15 +14935,11 @@
         <v>2978177.760549917</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15314,15 +14968,11 @@
         <v>2978177.760549917</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15355,11 +15005,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15392,11 +15038,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15429,11 +15071,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15466,11 +15104,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15503,11 +15137,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15540,11 +15170,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15577,11 +15203,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15614,11 +15236,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15651,11 +15269,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15688,11 +15302,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15725,11 +15335,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15762,11 +15368,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15799,11 +15401,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15836,11 +15434,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15873,11 +15467,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15910,11 +15500,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15947,11 +15533,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15984,11 +15566,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16021,11 +15599,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16058,11 +15632,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16095,11 +15665,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16132,11 +15698,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16169,11 +15731,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16206,11 +15764,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16243,11 +15797,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16280,11 +15830,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16317,11 +15863,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16354,11 +15896,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16391,11 +15929,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16428,11 +15962,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16465,11 +15995,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16502,11 +16028,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16539,11 +16061,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16576,11 +16094,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16613,11 +16127,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16650,11 +16160,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16687,11 +16193,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16724,11 +16226,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16761,11 +16259,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16798,11 +16292,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16835,11 +16325,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16872,11 +16358,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16909,11 +16391,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16946,11 +16424,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16983,11 +16457,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17020,11 +16490,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17057,11 +16523,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17094,11 +16556,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17131,11 +16589,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17168,11 +16622,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17205,11 +16655,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17242,11 +16688,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17279,11 +16721,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17316,11 +16754,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17353,11 +16787,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17390,11 +16820,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17427,11 +16853,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17464,11 +16886,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17501,11 +16919,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17538,11 +16952,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17575,11 +16985,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17612,11 +17018,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17649,11 +17051,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17686,11 +17084,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17723,11 +17117,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17760,11 +17150,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17797,11 +17183,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17834,11 +17216,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17871,11 +17249,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17908,11 +17282,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17945,11 +17315,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17982,11 +17348,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18019,11 +17381,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18056,11 +17414,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18093,11 +17447,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18130,11 +17480,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18167,11 +17513,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18204,11 +17546,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18241,11 +17579,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18278,11 +17612,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18315,11 +17645,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18352,11 +17678,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18389,11 +17711,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18426,11 +17744,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18463,11 +17777,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18500,11 +17810,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18537,11 +17843,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18574,11 +17876,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18611,11 +17909,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18648,11 +17942,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18685,11 +17975,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18722,11 +18008,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18759,11 +18041,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18796,11 +18074,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18833,11 +18107,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18870,11 +18140,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18907,11 +18173,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18944,11 +18206,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18981,11 +18239,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19018,11 +18272,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19055,11 +18305,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19092,11 +18338,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19129,11 +18371,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19166,11 +18404,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19203,11 +18437,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -19240,11 +18470,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -19277,11 +18503,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -19314,11 +18536,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -19351,11 +18569,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -19388,11 +18602,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19425,11 +18635,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19462,11 +18668,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19499,11 +18701,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19536,11 +18734,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19573,11 +18767,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19610,11 +18800,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19647,11 +18833,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19684,11 +18866,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19721,11 +18899,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19758,11 +18932,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19795,11 +18965,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19832,11 +18998,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19869,11 +19031,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19906,11 +19064,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19943,11 +19097,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19980,11 +19130,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -20017,11 +19163,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -20054,11 +19196,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -20091,11 +19229,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -20128,11 +19262,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -20165,11 +19295,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -20202,11 +19328,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -20239,11 +19361,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -20276,11 +19394,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -20313,11 +19427,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -20350,11 +19460,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -20387,11 +19493,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -20424,11 +19526,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -20461,11 +19559,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20498,11 +19592,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20535,11 +19625,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20572,11 +19658,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20609,11 +19691,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20646,11 +19724,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20683,11 +19757,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20720,11 +19790,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20757,11 +19823,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20794,11 +19856,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20831,11 +19889,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20868,11 +19922,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20905,11 +19955,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20942,11 +19988,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20979,11 +20021,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -21016,11 +20054,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -21053,11 +20087,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -21090,11 +20120,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -21127,11 +20153,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -21164,11 +20186,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -21201,11 +20219,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -21238,11 +20252,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -21275,11 +20285,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -21312,11 +20318,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -21349,11 +20351,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -21386,11 +20384,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -21423,11 +20417,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -21456,15 +20446,11 @@
         <v>-8365767.452016165</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -21497,11 +20483,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -21530,13 +20512,15 @@
         <v>-8312279.537216164</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I593" t="n">
+        <v>30.58</v>
+      </c>
       <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L593" t="n">
@@ -22566,9 +21550,11 @@
         <v>-4515916.292085238</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I621" t="n">
+        <v>30.31</v>
+      </c>
       <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
@@ -22603,9 +21589,11 @@
         <v>-4515898.292085238</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>30.3</v>
+      </c>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
@@ -22640,9 +21628,11 @@
         <v>-4515898.292085238</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I623" t="n">
+        <v>30.4</v>
+      </c>
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
@@ -22677,9 +21667,11 @@
         <v>-4515898.292085238</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I624" t="n">
+        <v>30.4</v>
+      </c>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
@@ -22714,9 +21706,11 @@
         <v>-4515881.292085238</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
-      </c>
-      <c r="I625" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I625" t="n">
+        <v>30.4</v>
+      </c>
       <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
@@ -22751,9 +21745,11 @@
         <v>-4513954.280885238</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
-      </c>
-      <c r="I626" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I626" t="n">
+        <v>30.6</v>
+      </c>
       <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
@@ -22788,9 +21784,11 @@
         <v>-4513937.280885238</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I627" t="n">
+        <v>30.9</v>
+      </c>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
@@ -22825,9 +21823,11 @@
         <v>-4514009.280885238</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I628" t="n">
+        <v>31</v>
+      </c>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
@@ -22862,9 +21862,11 @@
         <v>-4513792.280885238</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I629" t="n">
+        <v>30.9</v>
+      </c>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
@@ -22899,9 +21901,11 @@
         <v>-4512772.280885238</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>30.95</v>
+      </c>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
@@ -22936,9 +21940,11 @@
         <v>-4513520.986085238</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
-      </c>
-      <c r="I631" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I631" t="n">
+        <v>31</v>
+      </c>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
@@ -22973,9 +21979,11 @@
         <v>-4513520.986085238</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I632" t="n">
+        <v>30.9</v>
+      </c>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
@@ -23010,9 +22018,11 @@
         <v>-4482892.462141623</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>30.9</v>
+      </c>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
@@ -23084,9 +22094,11 @@
         <v>-4484508.015741623</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I635" t="n">
+        <v>31.09</v>
+      </c>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
@@ -23158,9 +22170,11 @@
         <v>4673659.285258377</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I637" t="n">
+        <v>30.9</v>
+      </c>
       <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
@@ -23195,18 +22209,16 @@
         <v>-218369.7780416226</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L638" t="n">
-        <v>1</v>
-      </c>
+      <c r="L638" t="inlineStr"/>
       <c r="M638" t="inlineStr"/>
     </row>
     <row r="639">
@@ -23232,15 +22244,11 @@
         <v>-181280.5252416226</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -23273,11 +22281,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -23310,11 +22314,7 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -23347,11 +22347,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -23384,11 +22380,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -23417,15 +22409,15 @@
         <v>-195854.2183416226</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I644" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J644" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -23454,13 +22446,17 @@
         <v>-195837.2183416226</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
-      </c>
-      <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I645" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J645" t="n">
+        <v>30.4</v>
+      </c>
       <c r="K645" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L645" t="n">
@@ -23494,10 +22490,12 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>30.4</v>
+      </c>
       <c r="K646" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L646" t="n">
@@ -23528,15 +22526,15 @@
         <v>-200143.7398416226</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
-      </c>
-      <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I647" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="J647" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -23565,13 +22563,17 @@
         <v>-230493.4142416226</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
-      </c>
-      <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I648" t="n">
+        <v>30.99</v>
+      </c>
+      <c r="J648" t="n">
+        <v>30.5</v>
+      </c>
       <c r="K648" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L648" t="n">
@@ -23605,10 +22607,12 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>30.5</v>
+      </c>
       <c r="K649" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L649" t="n">
@@ -23639,15 +22643,15 @@
         <v>-240432.5027416226</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
-      </c>
-      <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I650" t="n">
+        <v>30.51</v>
+      </c>
+      <c r="J650" t="n">
+        <v>30.51</v>
+      </c>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -23679,10 +22683,12 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>30.51</v>
+      </c>
       <c r="K651" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L651" t="n">
@@ -23713,13 +22719,17 @@
         <v>-240432.5027416226</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
-      </c>
-      <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I652" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="J652" t="n">
+        <v>30.51</v>
+      </c>
       <c r="K652" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L652" t="n">
@@ -23750,13 +22760,17 @@
         <v>-193743.4719349731</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I653" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="J653" t="n">
+        <v>30.51</v>
+      </c>
       <c r="K653" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L653" t="n">
@@ -23787,10 +22801,14 @@
         <v>-193743.4719349731</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>30.98</v>
+      </c>
+      <c r="J654" t="n">
+        <v>30.51</v>
+      </c>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23824,10 +22842,14 @@
         <v>-198850.1852349731</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
-      </c>
-      <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I655" t="n">
+        <v>30.98</v>
+      </c>
+      <c r="J655" t="n">
+        <v>30.51</v>
+      </c>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23861,10 +22883,14 @@
         <v>-198743.1852349731</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
-      </c>
-      <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I656" t="n">
+        <v>30.61</v>
+      </c>
+      <c r="J656" t="n">
+        <v>30.51</v>
+      </c>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23901,7 +22927,9 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>30.51</v>
+      </c>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23938,7 +22966,9 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>30.51</v>
+      </c>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23975,7 +23005,9 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>30.51</v>
+      </c>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24012,7 +23044,9 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>30.51</v>
+      </c>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24046,10 +23080,12 @@
         <v>-159673.8287480041</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>30.51</v>
+      </c>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24086,7 +23122,9 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>30.51</v>
+      </c>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24120,10 +23158,12 @@
         <v>-159529.225570285</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>30.51</v>
+      </c>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24157,21 +23197,23 @@
         <v>-159547.225570285</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>30.51</v>
+      </c>
       <c r="K664" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L664" t="n">
-        <v>1</v>
+        <v>1.003849557522124</v>
       </c>
       <c r="M664" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest FCT.xlsx
+++ b/BackTest/2020-01-16 BackTest FCT.xlsx
@@ -451,7 +451,7 @@
         <v>8854047.211859351</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>7095802.084559351</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>7031183.739159351</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>7045328.760359352</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>7057352.368159352</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>7069486.976059352</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>7058001.828459352</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>7098051.828459352</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>6761049.489859352</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>6763231.223359352</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>6755459.578459351</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>6770459.578459351</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>5600773.330359351</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>5455710.36355935</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>5455710.36355935</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>5455710.36355935</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>5455710.36355935</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>5473863.48005935</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>5417515.83025935</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>5322885.67795935</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>5322885.67795935</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>5312537.33895935</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>5308052.00185935</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>5308052.00185935</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>5401802.339071273</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>5401802.339071273</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>5401802.339071273</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>5366216.222171273</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>5295883.410871273</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>5295823.410871273</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>5172157.415771273</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>5017404.161571273</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>5017404.161571273</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>5022117.800471272</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>5028664.595071272</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>5036179.388371272</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>5036179.388371272</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>5045037.812995399</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>5079935.557671272</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>5188409.603225595</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>5188002.430825596</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>5239851.352425596</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>5206579.664725596</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>5187451.559625596</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>5184866.959625596</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>5165952.160725596</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>5040768.350525596</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>5040768.350525596</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>5042917.595225596</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>4992859.547825596</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>4992859.547825596</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>4970869.136325596</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>4955877.330925596</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -9625,10 +9625,14 @@
         <v>3181202.540319023</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="J280" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
@@ -9658,11 +9662,19 @@
         <v>3181202.540319023</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="J281" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9696,10 +9708,12 @@
       <c r="I282" t="n">
         <v>28.33</v>
       </c>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L282" t="n">
@@ -9730,13 +9744,17 @@
         <v>3146731.484719023</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="J283" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L283" t="n">
@@ -9767,10 +9785,14 @@
         <v>3145356.619919023</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>28.45</v>
+      </c>
+      <c r="J284" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9804,10 +9826,14 @@
         <v>3137163.123519023</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="J285" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9846,7 +9872,9 @@
       <c r="I286" t="n">
         <v>28.2</v>
       </c>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9885,7 +9913,9 @@
       <c r="I287" t="n">
         <v>28.3</v>
       </c>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9924,7 +9954,9 @@
       <c r="I288" t="n">
         <v>28.2</v>
       </c>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9963,7 +9995,9 @@
       <c r="I289" t="n">
         <v>28.2</v>
       </c>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10002,7 +10036,9 @@
       <c r="I290" t="n">
         <v>28.2</v>
       </c>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10041,7 +10077,9 @@
       <c r="I291" t="n">
         <v>28.6</v>
       </c>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10080,7 +10118,9 @@
       <c r="I292" t="n">
         <v>28.5</v>
       </c>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10119,7 +10159,9 @@
       <c r="I293" t="n">
         <v>28.5</v>
       </c>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10158,7 +10200,9 @@
       <c r="I294" t="n">
         <v>28.5</v>
       </c>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10192,10 +10236,14 @@
         <v>3068811.216519022</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="J295" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10234,7 +10282,9 @@
       <c r="I296" t="n">
         <v>28.59</v>
       </c>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10273,7 +10323,9 @@
       <c r="I297" t="n">
         <v>28.5</v>
       </c>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10312,7 +10364,9 @@
       <c r="I298" t="n">
         <v>28.3</v>
       </c>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10351,7 +10405,9 @@
       <c r="I299" t="n">
         <v>28.31</v>
       </c>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10390,7 +10446,9 @@
       <c r="I300" t="n">
         <v>28.3</v>
       </c>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10429,7 +10487,9 @@
       <c r="I301" t="n">
         <v>28.08</v>
       </c>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10468,7 +10528,9 @@
       <c r="I302" t="n">
         <v>28.11</v>
       </c>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10507,7 +10569,9 @@
       <c r="I303" t="n">
         <v>28.3</v>
       </c>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10546,7 +10610,9 @@
       <c r="I304" t="n">
         <v>28.3</v>
       </c>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10585,7 +10651,9 @@
       <c r="I305" t="n">
         <v>28.7</v>
       </c>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10624,7 +10692,9 @@
       <c r="I306" t="n">
         <v>28.7</v>
       </c>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10663,7 +10733,9 @@
       <c r="I307" t="n">
         <v>28.79</v>
       </c>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10702,7 +10774,9 @@
       <c r="I308" t="n">
         <v>28.79</v>
       </c>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10741,7 +10815,9 @@
       <c r="I309" t="n">
         <v>28.8</v>
       </c>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10780,7 +10856,9 @@
       <c r="I310" t="n">
         <v>28.61</v>
       </c>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10819,7 +10897,9 @@
       <c r="I311" t="n">
         <v>28.5</v>
       </c>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10858,7 +10938,9 @@
       <c r="I312" t="n">
         <v>28.6</v>
       </c>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10897,7 +10979,9 @@
       <c r="I313" t="n">
         <v>28.6</v>
       </c>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10936,7 +11020,9 @@
       <c r="I314" t="n">
         <v>28.8</v>
       </c>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10975,7 +11061,9 @@
       <c r="I315" t="n">
         <v>28.8</v>
       </c>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11014,7 +11102,9 @@
       <c r="I316" t="n">
         <v>28.9</v>
       </c>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11053,7 +11143,9 @@
       <c r="I317" t="n">
         <v>28.9</v>
       </c>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11092,7 +11184,9 @@
       <c r="I318" t="n">
         <v>28.9</v>
       </c>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11126,10 +11220,14 @@
         <v>2964416.328896184</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>29.14</v>
+      </c>
+      <c r="J319" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11163,10 +11261,14 @@
         <v>2964416.328896184</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>29.14</v>
+      </c>
+      <c r="J320" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11200,10 +11302,14 @@
         <v>2965776.495796184</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>29.14</v>
+      </c>
+      <c r="J321" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11242,7 +11348,9 @@
       <c r="I322" t="n">
         <v>29.17</v>
       </c>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11281,7 +11389,9 @@
       <c r="I323" t="n">
         <v>29.14</v>
       </c>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11320,7 +11430,9 @@
       <c r="I324" t="n">
         <v>29</v>
       </c>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11359,7 +11471,9 @@
       <c r="I325" t="n">
         <v>28.9</v>
       </c>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11398,7 +11512,9 @@
       <c r="I326" t="n">
         <v>28.9</v>
       </c>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11437,7 +11553,9 @@
       <c r="I327" t="n">
         <v>28.71</v>
       </c>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11476,7 +11594,9 @@
       <c r="I328" t="n">
         <v>28.7</v>
       </c>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11515,7 +11635,9 @@
       <c r="I329" t="n">
         <v>28.7</v>
       </c>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11554,7 +11676,9 @@
       <c r="I330" t="n">
         <v>28.7</v>
       </c>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11593,7 +11717,9 @@
       <c r="I331" t="n">
         <v>28.7</v>
       </c>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11632,7 +11758,9 @@
       <c r="I332" t="n">
         <v>28.7</v>
       </c>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11671,7 +11799,9 @@
       <c r="I333" t="n">
         <v>28.89</v>
       </c>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11710,7 +11840,9 @@
       <c r="I334" t="n">
         <v>29</v>
       </c>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11749,7 +11881,9 @@
       <c r="I335" t="n">
         <v>29.17</v>
       </c>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11788,7 +11922,9 @@
       <c r="I336" t="n">
         <v>29.4</v>
       </c>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11822,10 +11958,14 @@
         <v>2866481.808213831</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J337" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11859,10 +11999,14 @@
         <v>2867697.868517232</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J338" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11899,7 +12043,9 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11936,7 +12082,9 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11973,7 +12121,9 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12010,7 +12160,9 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12047,7 +12199,9 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12084,7 +12238,9 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12121,7 +12277,9 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12158,7 +12316,9 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12195,7 +12355,9 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12232,7 +12394,9 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12269,7 +12433,9 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12306,7 +12472,9 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12343,7 +12511,9 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12380,7 +12550,9 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12417,7 +12589,9 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12454,7 +12628,9 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12491,7 +12667,9 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12528,7 +12706,9 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12565,7 +12745,9 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12602,7 +12784,9 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12639,7 +12823,9 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12676,7 +12862,9 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12713,7 +12901,9 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12750,7 +12940,9 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12787,7 +12979,9 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12824,7 +13018,9 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12861,7 +13057,9 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12898,7 +13096,9 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12935,7 +13135,9 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12972,7 +13174,9 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13009,7 +13213,9 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13046,7 +13252,9 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13083,7 +13291,9 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13120,7 +13330,9 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13157,7 +13369,9 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13194,7 +13408,9 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13231,7 +13447,9 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13268,7 +13486,9 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13305,7 +13525,9 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13342,7 +13564,9 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13379,7 +13603,9 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13416,7 +13642,9 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13453,7 +13681,9 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13490,7 +13720,9 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13527,7 +13759,9 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13564,7 +13798,9 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13601,7 +13837,9 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13638,7 +13876,9 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13675,7 +13915,9 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13712,7 +13954,9 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13749,7 +13993,9 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13786,7 +14032,9 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13823,7 +14071,9 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13860,7 +14110,9 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13897,7 +14149,9 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13934,7 +14188,9 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13971,7 +14227,9 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14008,7 +14266,9 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14042,16 +14302,20 @@
         <v>3435445.315093162</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L397" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L397" t="n">
+        <v>1</v>
+      </c>
       <c r="M397" t="inlineStr"/>
     </row>
     <row r="398">
@@ -14077,11 +14341,17 @@
         <v>3391058.359177503</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14110,11 +14380,17 @@
         <v>3391058.359177503</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14143,11 +14419,17 @@
         <v>3286180.594377503</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14176,11 +14458,17 @@
         <v>3286246.594377503</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14209,11 +14497,17 @@
         <v>3182394.939977503</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14242,11 +14536,17 @@
         <v>3183714.193377503</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14275,11 +14575,17 @@
         <v>3182141.123777503</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14308,11 +14614,17 @@
         <v>3208352.070077503</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14341,11 +14653,17 @@
         <v>3203829.277777503</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14374,11 +14692,17 @@
         <v>3203829.277777503</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14407,11 +14731,17 @@
         <v>3085697.110477503</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14443,8 +14773,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14476,8 +14812,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14506,11 +14848,17 @@
         <v>3126969.263977503</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14539,11 +14887,17 @@
         <v>3126969.263977503</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14572,11 +14926,17 @@
         <v>3122780.709677503</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14605,11 +14965,17 @@
         <v>3116269.572377503</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14638,11 +15004,17 @@
         <v>3076498.436277503</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14671,11 +15043,17 @@
         <v>3070444.415877503</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14707,8 +15085,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14740,8 +15124,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14773,8 +15163,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14803,11 +15199,17 @@
         <v>2982905.877577503</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14836,11 +15238,17 @@
         <v>2983595.532749917</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14869,11 +15277,17 @@
         <v>2980737.932949917</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14902,11 +15316,17 @@
         <v>2980754.932949917</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14935,11 +15355,17 @@
         <v>2978177.760549917</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14968,11 +15394,17 @@
         <v>2978177.760549917</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15004,8 +15436,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15037,8 +15475,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15070,8 +15514,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15103,8 +15553,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15136,8 +15592,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15169,8 +15631,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15202,8 +15670,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15235,8 +15709,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15268,8 +15748,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15301,8 +15787,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15334,8 +15826,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15367,8 +15865,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15400,8 +15904,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15433,8 +15943,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15466,8 +15982,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15499,8 +16021,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15532,8 +16060,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15565,8 +16099,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15598,8 +16138,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15631,8 +16177,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15664,8 +16216,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15697,8 +16255,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15730,8 +16294,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15763,8 +16333,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15796,8 +16372,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15829,8 +16411,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15862,8 +16450,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15895,8 +16489,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15928,8 +16528,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15961,8 +16567,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15994,8 +16606,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16027,8 +16645,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16060,8 +16684,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16093,8 +16723,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16126,8 +16762,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16159,8 +16801,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16192,8 +16840,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16225,8 +16879,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16258,8 +16918,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16291,8 +16957,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16324,8 +16996,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16357,8 +17035,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16390,8 +17074,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16423,8 +17113,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16456,8 +17152,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16489,8 +17191,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16522,8 +17230,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16555,8 +17269,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16588,8 +17308,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16621,8 +17347,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16654,8 +17386,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16687,8 +17425,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16720,8 +17464,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16753,8 +17503,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16786,8 +17542,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16819,8 +17581,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16852,8 +17620,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16885,8 +17659,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16918,8 +17698,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16951,8 +17737,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16984,8 +17776,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17017,8 +17815,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17050,8 +17854,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17083,8 +17893,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17116,8 +17932,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17149,8 +17971,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17182,8 +18010,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17215,8 +18049,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17248,8 +18088,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17281,8 +18127,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17314,8 +18166,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17347,8 +18205,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17380,8 +18244,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17413,8 +18283,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17446,8 +18322,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17479,8 +18361,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17512,8 +18400,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17545,8 +18439,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17578,8 +18478,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17611,8 +18517,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17644,8 +18556,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17677,8 +18595,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17710,8 +18634,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17743,8 +18673,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17776,8 +18712,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17809,8 +18751,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17842,8 +18790,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17875,8 +18829,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17908,8 +18868,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17941,8 +18907,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17974,8 +18946,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18007,8 +18985,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18040,8 +19024,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18073,8 +19063,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18106,8 +19102,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18139,8 +19141,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18172,8 +19180,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18205,8 +19219,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18238,8 +19258,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18271,8 +19297,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18304,8 +19336,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18337,8 +19375,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18370,8 +19414,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18403,8 +19453,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18436,8 +19492,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18469,8 +19531,14 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18502,8 +19570,14 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18535,8 +19609,14 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18568,8 +19648,14 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18601,8 +19687,14 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18634,8 +19726,14 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18667,8 +19765,14 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18700,8 +19804,14 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18733,8 +19843,14 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18766,8 +19882,14 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18799,8 +19921,14 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18832,8 +19960,14 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18865,8 +19999,14 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18898,8 +20038,14 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18931,8 +20077,14 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18964,8 +20116,14 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18997,8 +20155,14 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19030,8 +20194,14 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19063,8 +20233,14 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19096,8 +20272,14 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19129,8 +20311,14 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19162,8 +20350,14 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19195,8 +20389,14 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19228,8 +20428,14 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19261,8 +20467,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19294,8 +20506,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19327,8 +20545,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19360,8 +20584,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19393,8 +20623,14 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19426,8 +20662,14 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19459,8 +20701,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19492,8 +20740,14 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19525,8 +20779,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19558,8 +20818,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19591,8 +20857,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19624,8 +20896,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19657,8 +20935,14 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19690,8 +20974,14 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19723,8 +21013,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19756,8 +21052,14 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19789,8 +21091,14 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19822,8 +21130,14 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19855,8 +21169,14 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19888,8 +21208,14 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19921,8 +21247,14 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19954,8 +21286,14 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19987,8 +21325,14 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20020,8 +21364,14 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20053,8 +21403,14 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20086,8 +21442,14 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20119,8 +21481,14 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20152,8 +21520,14 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20185,8 +21559,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20218,8 +21598,14 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20251,8 +21637,14 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20284,8 +21676,14 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20317,8 +21715,14 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20350,8 +21754,14 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20383,8 +21793,14 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20416,8 +21832,14 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20446,11 +21868,17 @@
         <v>-8365767.452016165</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20482,8 +21910,14 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20512,15 +21946,15 @@
         <v>-8312279.537216164</v>
       </c>
       <c r="H593" t="n">
-        <v>1</v>
-      </c>
-      <c r="I593" t="n">
-        <v>30.58</v>
-      </c>
-      <c r="J593" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K593" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L593" t="n">
@@ -20554,7 +21988,9 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20591,7 +22027,9 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20628,7 +22066,9 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20665,7 +22105,9 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20702,7 +22144,9 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20739,7 +22183,9 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20776,7 +22222,9 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20813,7 +22261,9 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20850,7 +22300,9 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20887,7 +22339,9 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20924,7 +22378,9 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20961,7 +22417,9 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20998,7 +22456,9 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21035,7 +22495,9 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21072,7 +22534,9 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21109,7 +22573,9 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21146,7 +22612,9 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21180,10 +22648,14 @@
         <v>-4451117.143485237</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I611" t="n">
+        <v>30.82</v>
+      </c>
+      <c r="J611" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21217,10 +22689,14 @@
         <v>-4451045.143485237</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I612" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="J612" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21257,7 +22733,9 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21294,7 +22772,9 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21328,10 +22808,14 @@
         <v>-4469895.481785237</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I615" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="J615" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21365,10 +22849,14 @@
         <v>-4469733.481785237</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
-      </c>
-      <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I616" t="n">
+        <v>30.68</v>
+      </c>
+      <c r="J616" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21402,10 +22890,14 @@
         <v>-4469733.481785237</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I617" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="J617" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21439,10 +22931,14 @@
         <v>-4470637.570485237</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I618" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="J618" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21476,10 +22972,14 @@
         <v>-4473937.683785237</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
-      </c>
-      <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I619" t="n">
+        <v>30.68</v>
+      </c>
+      <c r="J619" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21513,10 +23013,14 @@
         <v>-4484937.924485237</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I620" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="J620" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21555,7 +23059,9 @@
       <c r="I621" t="n">
         <v>30.31</v>
       </c>
-      <c r="J621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21594,7 +23100,9 @@
       <c r="I622" t="n">
         <v>30.3</v>
       </c>
-      <c r="J622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21633,7 +23141,9 @@
       <c r="I623" t="n">
         <v>30.4</v>
       </c>
-      <c r="J623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21672,7 +23182,9 @@
       <c r="I624" t="n">
         <v>30.4</v>
       </c>
-      <c r="J624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21711,7 +23223,9 @@
       <c r="I625" t="n">
         <v>30.4</v>
       </c>
-      <c r="J625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21750,7 +23264,9 @@
       <c r="I626" t="n">
         <v>30.6</v>
       </c>
-      <c r="J626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21789,7 +23305,9 @@
       <c r="I627" t="n">
         <v>30.9</v>
       </c>
-      <c r="J627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21828,7 +23346,9 @@
       <c r="I628" t="n">
         <v>31</v>
       </c>
-      <c r="J628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21867,7 +23387,9 @@
       <c r="I629" t="n">
         <v>30.9</v>
       </c>
-      <c r="J629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21906,7 +23428,9 @@
       <c r="I630" t="n">
         <v>30.95</v>
       </c>
-      <c r="J630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21945,7 +23469,9 @@
       <c r="I631" t="n">
         <v>31</v>
       </c>
-      <c r="J631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21984,7 +23510,9 @@
       <c r="I632" t="n">
         <v>30.9</v>
       </c>
-      <c r="J632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22023,7 +23551,9 @@
       <c r="I633" t="n">
         <v>30.9</v>
       </c>
-      <c r="J633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22057,10 +23587,14 @@
         <v>-4482892.462141623</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I634" t="n">
+        <v>31.09</v>
+      </c>
+      <c r="J634" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22099,7 +23633,9 @@
       <c r="I635" t="n">
         <v>31.09</v>
       </c>
-      <c r="J635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22133,10 +23669,14 @@
         <v>-4496357.714741623</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I636" t="n">
+        <v>30.93</v>
+      </c>
+      <c r="J636" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22175,7 +23715,9 @@
       <c r="I637" t="n">
         <v>30.9</v>
       </c>
-      <c r="J637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22209,16 +23751,20 @@
         <v>-218369.7780416226</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>28.06</v>
+      </c>
       <c r="K638" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L638" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L638" t="n">
+        <v>1</v>
+      </c>
       <c r="M638" t="inlineStr"/>
     </row>
     <row r="639">
@@ -22244,11 +23790,17 @@
         <v>-181280.5252416226</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22280,8 +23832,14 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22313,8 +23871,14 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22346,8 +23910,14 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22379,8 +23949,14 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22409,15 +23985,17 @@
         <v>-195854.2183416226</v>
       </c>
       <c r="H644" t="n">
-        <v>1</v>
-      </c>
-      <c r="I644" t="n">
-        <v>30.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I644" t="inlineStr"/>
       <c r="J644" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="K644" t="inlineStr"/>
+        <v>28.06</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22452,11 +24030,11 @@
         <v>30.4</v>
       </c>
       <c r="J645" t="n">
-        <v>30.4</v>
+        <v>28.06</v>
       </c>
       <c r="K645" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L645" t="n">
@@ -22491,11 +24069,11 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="n">
-        <v>30.4</v>
+        <v>28.06</v>
       </c>
       <c r="K646" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L646" t="n">
@@ -22526,15 +24104,17 @@
         <v>-200143.7398416226</v>
       </c>
       <c r="H647" t="n">
-        <v>1</v>
-      </c>
-      <c r="I647" t="n">
-        <v>30.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I647" t="inlineStr"/>
       <c r="J647" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="K647" t="inlineStr"/>
+        <v>28.06</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22563,17 +24143,15 @@
         <v>-230493.4142416226</v>
       </c>
       <c r="H648" t="n">
-        <v>1</v>
-      </c>
-      <c r="I648" t="n">
-        <v>30.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I648" t="inlineStr"/>
       <c r="J648" t="n">
-        <v>30.5</v>
+        <v>28.06</v>
       </c>
       <c r="K648" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L648" t="n">
@@ -22608,11 +24186,11 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="n">
-        <v>30.5</v>
+        <v>28.06</v>
       </c>
       <c r="K649" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L649" t="n">
@@ -22643,15 +24221,17 @@
         <v>-240432.5027416226</v>
       </c>
       <c r="H650" t="n">
-        <v>1</v>
-      </c>
-      <c r="I650" t="n">
-        <v>30.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I650" t="inlineStr"/>
       <c r="J650" t="n">
-        <v>30.51</v>
-      </c>
-      <c r="K650" t="inlineStr"/>
+        <v>28.06</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22684,11 +24264,11 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="n">
-        <v>30.51</v>
+        <v>28.06</v>
       </c>
       <c r="K651" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L651" t="n">
@@ -22719,17 +24299,15 @@
         <v>-240432.5027416226</v>
       </c>
       <c r="H652" t="n">
-        <v>1</v>
-      </c>
-      <c r="I652" t="n">
-        <v>30.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I652" t="inlineStr"/>
       <c r="J652" t="n">
-        <v>30.51</v>
+        <v>28.06</v>
       </c>
       <c r="K652" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L652" t="n">
@@ -22760,17 +24338,15 @@
         <v>-193743.4719349731</v>
       </c>
       <c r="H653" t="n">
-        <v>1</v>
-      </c>
-      <c r="I653" t="n">
-        <v>30.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I653" t="inlineStr"/>
       <c r="J653" t="n">
-        <v>30.51</v>
+        <v>28.06</v>
       </c>
       <c r="K653" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L653" t="n">
@@ -22801,13 +24377,11 @@
         <v>-193743.4719349731</v>
       </c>
       <c r="H654" t="n">
-        <v>1</v>
-      </c>
-      <c r="I654" t="n">
-        <v>30.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I654" t="inlineStr"/>
       <c r="J654" t="n">
-        <v>30.51</v>
+        <v>28.06</v>
       </c>
       <c r="K654" t="inlineStr">
         <is>
@@ -22842,13 +24416,11 @@
         <v>-198850.1852349731</v>
       </c>
       <c r="H655" t="n">
-        <v>1</v>
-      </c>
-      <c r="I655" t="n">
-        <v>30.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I655" t="inlineStr"/>
       <c r="J655" t="n">
-        <v>30.51</v>
+        <v>28.06</v>
       </c>
       <c r="K655" t="inlineStr">
         <is>
@@ -22883,13 +24455,11 @@
         <v>-198743.1852349731</v>
       </c>
       <c r="H656" t="n">
-        <v>1</v>
-      </c>
-      <c r="I656" t="n">
-        <v>30.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I656" t="inlineStr"/>
       <c r="J656" t="n">
-        <v>30.51</v>
+        <v>28.06</v>
       </c>
       <c r="K656" t="inlineStr">
         <is>
@@ -22928,7 +24498,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="n">
-        <v>30.51</v>
+        <v>28.06</v>
       </c>
       <c r="K657" t="inlineStr">
         <is>
@@ -22967,7 +24537,7 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="n">
-        <v>30.51</v>
+        <v>28.06</v>
       </c>
       <c r="K658" t="inlineStr">
         <is>
@@ -23006,7 +24576,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="n">
-        <v>30.51</v>
+        <v>28.06</v>
       </c>
       <c r="K659" t="inlineStr">
         <is>
@@ -23045,7 +24615,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="n">
-        <v>30.51</v>
+        <v>28.06</v>
       </c>
       <c r="K660" t="inlineStr">
         <is>
@@ -23080,11 +24650,11 @@
         <v>-159673.8287480041</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="n">
-        <v>30.51</v>
+        <v>28.06</v>
       </c>
       <c r="K661" t="inlineStr">
         <is>
@@ -23123,7 +24693,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="n">
-        <v>30.51</v>
+        <v>28.06</v>
       </c>
       <c r="K662" t="inlineStr">
         <is>
@@ -23158,11 +24728,11 @@
         <v>-159529.225570285</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="n">
-        <v>30.51</v>
+        <v>28.06</v>
       </c>
       <c r="K663" t="inlineStr">
         <is>
@@ -23197,19 +24767,19 @@
         <v>-159547.225570285</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="n">
-        <v>30.51</v>
+        <v>28.06</v>
       </c>
       <c r="K664" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L664" t="n">
-        <v>1.003849557522124</v>
+        <v>1</v>
       </c>
       <c r="M664" t="inlineStr"/>
     </row>
